--- a/growsimplee/bangalore_pickups.xlsx
+++ b/growsimplee/bangalore_pickups.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t xml:space="preserve">address</t>
   </si>
@@ -140,6 +140,123 @@
   </si>
   <si>
     <t xml:space="preserve">SKU_118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2617, 27th Main, Sector 1, Opposite CPWD Complex, HSR, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Blake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">493, 13th Cross, 2nd Stage, Behind BDA Complex, Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiranagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathryn Zuhlke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68, Appareddy Palya, Near ESI Hospital, HAL 2nd Stage, Double Road, Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russell Repp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">844, Binnamangala, 1st Stage, Near B.D.A Complex, Double Road, Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Cross, 2nd Stage, Domlur, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen Turner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322, Shalini Complex, CMH Road, Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert Rosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Floor, Figure and Fitness Gym, ESI Hospital Road, Double Road, Stage 3, Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raymond May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89/1, Monnekollal Village, Varthur Hobli, Outer Ring Road, Marathahalli, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Parsons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outer Ring Road, Opposite to JP Morgan, Kodbisanhalli, Marathahalli, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwan Howell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82/3, Third Floor, Khata 866, Panathur Main Road, Bhoganahalli Cross, Marathahalli, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruben Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embassy Tech Square Food Court, Cessna Tech Park, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melva Little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/4 &amp; 27, Ground Floor, Indiqube Alpha, Panathur Junction, Kadubisanahalli, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Epson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop 217, 2nd Main Road, Kadubeesanahalli Croma, Back Side Road, Near Kumbeshwara Temple Marathahalli, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morris Delacruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_33</t>
   </si>
 </sst>
 </file>
@@ -259,7 +376,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,43 +622,264 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>37256804721</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>98320322280</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>19222028019</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>98618659069</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>37317986613</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>87348538617</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>90135330114</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>35278429230</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>85641566876</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>81893229584</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>59723146139</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>33192159992</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>83760820881</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/growsimplee/bangalore_pickups.xlsx
+++ b/growsimplee/bangalore_pickups.xlsx
@@ -20,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">gjhg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+  <si>
+    <t xml:space="preserve">sfffffffffs</t>
   </si>
   <si>
     <t xml:space="preserve">address</t>
   </si>
   <si>
-    <t xml:space="preserve">ghjg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdd</t>
+    <t xml:space="preserve">fdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdff</t>
   </si>
   <si>
     <t xml:space="preserve">product_id</t>
@@ -71,6 +71,162 @@
   </si>
   <si>
     <t xml:space="preserve">SKU_129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2617, 27th Main, Sector 1, Opposite CPWD Complex, HSR, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Blake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">493, 13th Cross, 2nd Stage, Behind BDA Complex, Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathryn Zuhlke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2334, Aarush Arcade, 17th Cross, 1st Sector, HSR, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Shelley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1659, 27th Main Road, Sector 2, HSR Layout, HSR, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica Troxler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31st Main, Near NIFT, Sector 1, HSR, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Baumberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/4 &amp; 27, Ground Floor, Indiqube Alpha, Panathur Junction, Kadubisanahalli, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judy Epson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322, Shalini Complex, CMH Road, Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert Rosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Floor, Figure and Fitness Gym, ESI Hospital Road, Double Road, Stage 3, Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raymond May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">844, Binnamangala, 1st Stage, Near B.D.A Complex, Double Road, Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Cross, 2nd Stage, Domlur, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen Turner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop 217, 2nd Main Road, Kadubeesanahalli Croma, Back Side Road, Near Kumbeshwara Temple Marathahalli, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morris Delacruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68, Appareddy Palya, Near ESI Hospital, HAL 2nd Stage, Double Road, Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russell Repp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89/1, Monnekollal Village, Varthur Hobli, Outer Ring Road, Marathahalli, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Parsons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outer Ring Road, Opposite to JP Morgan, Kodbisanhalli, Marathahalli, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwan Howell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2318, Sector 1, Near NIFT College, HSR, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth Donaldson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">697, 12th Cross, 27th Main, 1st Sector, HSR, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecilia Henderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1260 SY 35/4 SJR Tower's, 24th Main Puttanhalli, JP Nagar 7th Phase, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">915, 24th Main Road, 2nd Phase, Mayura Circle, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Finn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU_148</t>
   </si>
 </sst>
 </file>
@@ -82,7 +238,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -104,19 +260,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -132,19 +275,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -180,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,19 +329,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,7 +357,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -250,7 +378,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -258,16 +386,16 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>40834506264</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -275,16 +403,16 @@
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>81893229584</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -292,16 +420,16 @@
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>59723146139</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -309,144 +437,324 @@
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>13550952423</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>37256804721</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>98320322280</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>64727690316</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>33739970099</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>70719650178</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>33192159992</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>87348538617</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>90135330114</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>98618659069</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>37317986613</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>83760820881</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>19222028019</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>35278429230</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>85641566876</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>44350146864</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>35688482050</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>75730852176</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>65256560203</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
